--- a/public/template/California Best_sample_template.xlsx
+++ b/public/template/California Best_sample_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tester\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE910DCF-A1CB-4276-9DF4-22632D7C79CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60B9ADD-BC56-4026-9362-E5E509B5F6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="288" yWindow="1536" windowWidth="22752" windowHeight="6816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="with_all_correctdata" sheetId="1" r:id="rId1"/>
@@ -990,7 +990,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1001,7 +1001,7 @@
     <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>

--- a/public/template/California Best_sample_template.xlsx
+++ b/public/template/California Best_sample_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tester\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60B9ADD-BC56-4026-9362-E5E509B5F6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE910DCF-A1CB-4276-9DF4-22632D7C79CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="1536" windowWidth="22752" windowHeight="6816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="with_all_correctdata" sheetId="1" r:id="rId1"/>
@@ -990,7 +990,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1001,7 +1001,7 @@
     <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
